--- a/Lynae Shepp_.xlsx
+++ b/Lynae Shepp_.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
   <si>
     <t>Date</t>
   </si>
@@ -453,13 +453,64 @@
     <t>Students/Tabby</t>
   </si>
   <si>
+    <t>Weekly Summary</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mon 6:05 PM -  Mon 8:00 PM</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mon 8:20 PM -  Mon 9:50 PM</t>
   </si>
   <si>
+    <t>Mon Day Summary</t>
+  </si>
+  <si>
+    <t>Mon Night Average</t>
+  </si>
+  <si>
+    <t>Tue Day Summary</t>
+  </si>
+  <si>
+    <t>Tue Night Average</t>
+  </si>
+  <si>
+    <t>Wed Day Summary</t>
+  </si>
+  <si>
+    <t>Wed Night Average</t>
+  </si>
+  <si>
+    <t>Thu Day Summary</t>
+  </si>
+  <si>
+    <t>Thu Night Average</t>
+  </si>
+  <si>
+    <t>Fri Day Summary</t>
+  </si>
+  <si>
+    <t>Fri Night Average</t>
+  </si>
+  <si>
+    <t>Sat Day Summary</t>
+  </si>
+  <si>
+    <t>Sat Night Average</t>
+  </si>
+  <si>
+    <t>Sun Day Summary</t>
+  </si>
+  <si>
+    <t>Sun Night Average</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Tue 10:10 AM -  Tue 2:10 PM</t>
+  </si>
+  <si>
+    <t>Weekly Average</t>
   </si>
   <si>
     <t xml:space="preserve"> Tue 2:30 PM -  Tue 4:00 PM</t>
@@ -494,7 +545,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -530,6 +581,16 @@
         <bgColor rgb="00c0f7f4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f7d28a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c6c0ed"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -543,13 +604,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -2444,7 +2507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2457,9 +2520,13 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="7" min="7" width="16"/>
+    <col customWidth="1" max="8" min="8" width="16"/>
+    <col customWidth="1" max="9" min="9" width="16"/>
+    <col customWidth="1" max="10" min="10" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2472,10 +2539,13 @@
       <c r="D1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B2" t="n">
         <v>1.54</v>
@@ -2486,10 +2556,22 @@
       <c r="D2" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="G2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B3" t="n">
         <v>0.89</v>
@@ -2500,13 +2582,74 @@
       <c r="D3" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4"/>
-    <row r="5" spans="1:4"/>
-    <row r="6" spans="1:4"/>
-    <row r="7" spans="1:4"/>
-    <row r="8" spans="1:4"/>
-    <row r="9" spans="1:4">
+      <c r="G3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="G4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="7" t="n"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="G5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" s="7" t="n"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="G6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="7" t="n"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="G7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="7" t="n"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="G8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="7" t="n"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2519,10 +2662,18 @@
       <c r="D9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="7" t="n"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B10" t="n">
         <v>2.33</v>
@@ -2533,10 +2684,19 @@
       <c r="D10" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B11" t="n">
         <v>2.89</v>
@@ -2548,12 +2708,12 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="12" spans="1:4"/>
-    <row r="13" spans="1:4"/>
-    <row r="14" spans="1:4"/>
-    <row r="15" spans="1:4"/>
-    <row r="16" spans="1:4"/>
-    <row r="17" spans="1:4">
+    <row r="12" spans="1:10"/>
+    <row r="13" spans="1:10"/>
+    <row r="14" spans="1:10"/>
+    <row r="15" spans="1:10"/>
+    <row r="16" spans="1:10"/>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2567,9 +2727,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B18" t="n">
         <v>2.9</v>
@@ -2581,9 +2741,9 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B19" t="n">
         <v>2.76</v>
@@ -2595,12 +2755,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="1:4"/>
-    <row r="21" spans="1:4"/>
-    <row r="22" spans="1:4"/>
-    <row r="23" spans="1:4"/>
-    <row r="24" spans="1:4"/>
-    <row r="25" spans="1:4">
+    <row r="20" spans="1:10"/>
+    <row r="21" spans="1:10"/>
+    <row r="22" spans="1:10"/>
+    <row r="23" spans="1:10"/>
+    <row r="24" spans="1:10"/>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2614,9 +2774,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B26" t="n">
         <v>2.9</v>
@@ -2628,9 +2788,9 @@
         <v>0.8100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B27" t="n">
         <v>3.53</v>
@@ -2642,12 +2802,12 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="28" spans="1:4"/>
-    <row r="29" spans="1:4"/>
-    <row r="30" spans="1:4"/>
-    <row r="31" spans="1:4"/>
-    <row r="32" spans="1:4"/>
-    <row r="33" spans="1:4">
+    <row r="28" spans="1:10"/>
+    <row r="29" spans="1:10"/>
+    <row r="30" spans="1:10"/>
+    <row r="31" spans="1:10"/>
+    <row r="32" spans="1:10"/>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2661,14 +2821,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:4"/>
-    <row r="35" spans="1:4"/>
-    <row r="36" spans="1:4"/>
-    <row r="37" spans="1:4"/>
-    <row r="38" spans="1:4"/>
-    <row r="39" spans="1:4"/>
-    <row r="40" spans="1:4"/>
-    <row r="41" spans="1:4">
+    <row r="34" spans="1:10"/>
+    <row r="35" spans="1:10"/>
+    <row r="36" spans="1:10"/>
+    <row r="37" spans="1:10"/>
+    <row r="38" spans="1:10"/>
+    <row r="39" spans="1:10"/>
+    <row r="40" spans="1:10"/>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2682,14 +2842,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:4"/>
-    <row r="43" spans="1:4"/>
-    <row r="44" spans="1:4"/>
-    <row r="45" spans="1:4"/>
-    <row r="46" spans="1:4"/>
-    <row r="47" spans="1:4"/>
-    <row r="48" spans="1:4"/>
-    <row r="49" spans="1:4">
+    <row r="42" spans="1:10"/>
+    <row r="43" spans="1:10"/>
+    <row r="44" spans="1:10"/>
+    <row r="45" spans="1:10"/>
+    <row r="46" spans="1:10"/>
+    <row r="47" spans="1:10"/>
+    <row r="48" spans="1:10"/>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2703,13 +2863,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:4"/>
-    <row r="51" spans="1:4"/>
-    <row r="52" spans="1:4"/>
-    <row r="53" spans="1:4"/>
-    <row r="54" spans="1:4"/>
-    <row r="55" spans="1:4"/>
-    <row r="56" spans="1:4"/>
+    <row r="50" spans="1:10"/>
+    <row r="51" spans="1:10"/>
+    <row r="52" spans="1:10"/>
+    <row r="53" spans="1:10"/>
+    <row r="54" spans="1:10"/>
+    <row r="55" spans="1:10"/>
+    <row r="56" spans="1:10"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Lynae Shepp_.xlsx
+++ b/Lynae Shepp_.xlsx
@@ -533,7 +533,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -543,6 +543,14 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="15"/>
     </font>
   </fonts>
   <fills count="9">
@@ -604,15 +612,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -2520,10 +2530,10 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="7" min="7" width="16"/>
-    <col customWidth="1" max="8" min="8" width="16"/>
-    <col customWidth="1" max="9" min="9" width="16"/>
-    <col customWidth="1" max="10" min="10" width="16"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="20"/>
+    <col customWidth="1" max="9" min="9" width="20"/>
+    <col customWidth="1" max="10" min="10" width="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2539,7 +2549,7 @@
       <c r="D1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2582,72 +2592,72 @@
       <c r="D3" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="7" t="n">
+      <c r="J3" s="8" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <v>0.7</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="7" t="n"/>
+      <c r="J4" s="8" t="n"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>0.72</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="J5" s="7" t="n"/>
+      <c r="J5" s="8" t="n"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="7" t="n">
         <v>0.84</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="7" t="n"/>
+      <c r="J6" s="8" t="n"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H7" s="6" t="n"/>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="7" t="n"/>
+      <c r="I7" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J7" s="7" t="n"/>
+      <c r="J7" s="8" t="n"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="7" t="n"/>
+      <c r="I8" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="J8" s="7" t="n"/>
+      <c r="J8" s="8" t="n"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -2662,14 +2672,14 @@
       <c r="D9" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="7" t="n"/>
+      <c r="I9" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="J9" s="7" t="n"/>
+      <c r="J9" s="8" t="n"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -2684,13 +2694,14 @@
       <c r="D10" t="n">
         <v>0.59</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="9" t="n">
         <v>0.75</v>
       </c>
-      <c r="J10" t="n">
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="9" t="n">
         <v>0.6</v>
       </c>
     </row>
